--- a/RakutenDefense.xlsx
+++ b/RakutenDefense.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f5506be264ea6d1/國立台北科技大學/一上/程式設計/資料庫/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_AD4DBB64A54DDB1B405E38E25DDA1A3D4E90DF26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F83DDF4B-684D-45B1-90C7-92066A003CD2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914C830C-53A0-4A10-B74B-B84965FE0A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="3960" windowWidth="16920" windowHeight="10450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -477,6 +477,36 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2014</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
